--- a/behavior_data.xlsx
+++ b/behavior_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,27 +435,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>ssdddsad</t>
         </is>
       </c>
       <c r="C1" s="1" t="n">
-        <v>993.9234944122609</v>
+        <v>1203.544324812809</v>
       </c>
       <c r="D1" s="1" t="n">
-        <v>4.306683615602863</v>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+        <v>4.735066554294444</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="F1" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Human</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>2025-04-19 15:19:50</t>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>2025-04-19 15:53:12</t>
         </is>
       </c>
     </row>
